--- a/src/main/resources/csv/items.xlsx
+++ b/src/main/resources/csv/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17808" windowHeight="9047"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>objectId</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>up</t>
+  </si>
+  <si>
+    <t>sec</t>
   </si>
   <si>
     <t>desc</t>
@@ -72,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,7 +105,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,6 +126,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -131,16 +156,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,8 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,54 +210,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,37 +242,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,67 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,73 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,13 +436,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,17 +460,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,9 +486,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,17 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,18 +1002,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="59.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="59.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,8 +1029,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -1035,16 +1041,19 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1052,16 +1061,19 @@
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1069,16 +1081,19 @@
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>400</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -1086,16 +1101,19 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1103,16 +1121,19 @@
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -1120,13 +1141,16 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/csv/items.xlsx
+++ b/src/main/resources/csv/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="15168" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,8 +104,62 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,6 +180,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -134,61 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,24 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,35 +436,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,6 +482,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>10001</v>
+        <v>11001</v>
       </c>
       <c r="B2">
         <v>101</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>10002</v>
+        <v>11002</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>10003</v>
+        <v>11003</v>
       </c>
       <c r="B4">
         <v>101</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>10004</v>
+        <v>11004</v>
       </c>
       <c r="B5">
         <v>102</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>10005</v>
+        <v>11005</v>
       </c>
       <c r="B6">
         <v>102</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>10006</v>
+        <v>11006</v>
       </c>
       <c r="B7">
         <v>102</v>

--- a/src/main/resources/csv/items.xlsx
+++ b/src/main/resources/csv/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15168" windowHeight="8484"/>
+    <workbookView windowWidth="17088" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>objectId</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>minTrans</t>
   </si>
   <si>
     <t>小血瓶</t>
@@ -90,16 +93,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,7 +140,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,89 +177,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,17 +191,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +245,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,7 +293,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +329,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,139 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,15 +436,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,11 +456,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,17 +517,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,175 +536,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,18 +1005,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="6" max="6" width="59.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,8 +1035,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>11001</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -1050,10 +1056,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>11002</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -1070,10 +1079,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>11003</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>400</v>
@@ -1090,10 +1102,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>11004</v>
       </c>
@@ -1101,7 +1116,7 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -1110,10 +1125,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>11005</v>
       </c>
@@ -1121,7 +1139,7 @@
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1130,10 +1148,13 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>11006</v>
       </c>
@@ -1141,7 +1162,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1150,7 +1171,10 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
